--- a/data/trans_camb/P08_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P08_2_R-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>3.643603809136964</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>6.805537918569099</v>
+        <v>6.805537918569094</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.260598281874173</v>
+        <v>-1.08842524715979</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9628737827041035</v>
+        <v>-0.6062517911774885</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.4661557140656457</v>
+        <v>-0.3237545799913953</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4118463704978981</v>
+        <v>-0.4937455369682204</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.8687806628603291</v>
+        <v>-0.7918728325144879</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.879653277630283</v>
+        <v>3.972102338428116</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.690304777815801</v>
+        <v>0.7473857053315921</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7052122158491974</v>
+        <v>0.4799274290072199</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.639705201309875</v>
+        <v>3.953593477734978</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.315505159438727</v>
+        <v>7.74646113008321</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.671257098585283</v>
+        <v>8.088259784020442</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.85495301280576</v>
+        <v>8.991458447482389</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.238827236345633</v>
+        <v>6.880986863072936</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.650413537120079</v>
+        <v>7.788824481141518</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.52785308463339</v>
+        <v>11.82177495943076</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.64837142296825</v>
+        <v>6.598561547717987</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.591437551730748</v>
+        <v>6.781557973103859</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.725324257743344</v>
+        <v>10.08301990675101</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.09422957688856992</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.176002384495745</v>
+        <v>0.1760023844957448</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.04003755366271684</v>
+        <v>-0.03679303851008579</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.03036948748035834</v>
+        <v>-0.0177718752747667</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.02029998185472325</v>
+        <v>-0.01038339833492591</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.008813245659337998</v>
+        <v>-0.01057875404455714</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01760774802089042</v>
+        <v>-0.01760732815702562</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07912672442479025</v>
+        <v>0.08443750300898799</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01666322791123697</v>
+        <v>0.01862900972945671</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.0178161204672231</v>
+        <v>0.01130287595955673</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.09216272104408532</v>
+        <v>0.09843719562881843</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.259415067212381</v>
+        <v>0.2771797589687162</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2744352505527689</v>
+        <v>0.2938760973178758</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3028826668386602</v>
+        <v>0.3194132683631389</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1648920515101584</v>
+        <v>0.158246504304141</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1771357224186897</v>
+        <v>0.1789292617591242</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2622642450903933</v>
+        <v>0.2716211030748729</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1780698425663831</v>
+        <v>0.1780598400093373</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1778401324784599</v>
+        <v>0.1801827114808247</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2611181172330146</v>
+        <v>0.2687903179447982</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>5.1681649343433</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>6.770569701424234</v>
+        <v>6.770569701424228</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.935922018780522</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3943555365071687</v>
+        <v>0.3274342630462276</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9445523388866833</v>
+        <v>0.8308306701716802</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.154521542933836</v>
+        <v>4.329953416320422</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.797263081789334</v>
+        <v>1.527055799025362</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.005395273867666</v>
+        <v>3.111880752084762</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.837351801297446</v>
+        <v>4.862169154178112</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.635139016631058</v>
+        <v>1.568349439227371</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.453116070861728</v>
+        <v>2.42288735525543</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.090807861686365</v>
+        <v>4.908077411959278</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.105254642313809</v>
+        <v>3.919695095741838</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.455204263451871</v>
+        <v>4.557691496539125</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.852851361975483</v>
+        <v>7.899584686043931</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.279696509609259</v>
+        <v>6.232241310379338</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.195092510283447</v>
+        <v>7.391774258230109</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.78211660529084</v>
+        <v>8.670602829185459</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.345810097792</v>
+        <v>4.30062296762899</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.346661172808471</v>
+        <v>5.268474226750158</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.716813059605096</v>
+        <v>7.725182609704608</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.5972367182784631</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7824117226761869</v>
+        <v>0.7824117226761863</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.38373009809551</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.04134231287250044</v>
+        <v>0.04680215770256337</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1135239838547895</v>
+        <v>0.108396779682942</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5496329612013742</v>
+        <v>0.5813981433985884</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1815585471881373</v>
+        <v>0.1581924871928409</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3169818517522803</v>
+        <v>0.3206091162189193</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.493814004213537</v>
+        <v>0.4786933701268491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1951910762506553</v>
+        <v>0.1838675320903524</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2920640224609993</v>
+        <v>0.3027182269956552</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.6042452643137253</v>
+        <v>0.5904513227508664</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6894911816156464</v>
+        <v>0.674452473275444</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7627930528402838</v>
+        <v>0.7785839533953947</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.357068691896504</v>
+        <v>1.401883910470894</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8058848100389066</v>
+        <v>0.810894578818995</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9451605008245048</v>
+        <v>0.9895227247679445</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.146835212855098</v>
+        <v>1.16530746890891</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6398384293029801</v>
+        <v>0.6083353027379836</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7616217299415874</v>
+        <v>0.759305525518838</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.110469558462592</v>
+        <v>1.110135642752267</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.509252531417804</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.5901879725154533</v>
+        <v>0.5901879725154546</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.901845524931804</v>
@@ -1083,7 +1083,7 @@
         <v>-1.785672340769971</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.4256598673440831</v>
+        <v>-0.4256598673440845</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.2123408405381874</v>
@@ -1092,7 +1092,7 @@
         <v>0.005939888570337393</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.2501402340187753</v>
+        <v>0.2501402340187739</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.315792048609042</v>
+        <v>-2.23582140272695</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.738645769147506</v>
+        <v>-1.800565045194325</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.502151130977591</v>
+        <v>-2.335152255665398</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.947171981501521</v>
+        <v>-6.040346965502044</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.832427617207201</v>
+        <v>-5.835777266786184</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.958212701635554</v>
+        <v>-3.971047486731134</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.830563521765841</v>
+        <v>-2.86762762062703</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.652178762404997</v>
+        <v>-2.381822719347043</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.037554488576198</v>
+        <v>-1.918509814585492</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.114693157352916</v>
+        <v>4.855398147331477</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.894772211430891</v>
+        <v>4.882528163755769</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.333836215859486</v>
+        <v>3.288595866460276</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.104357076099015</v>
+        <v>1.746679422806353</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.935281898823161</v>
+        <v>2.221519856889595</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.77222081392643</v>
+        <v>3.201634165357243</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.36387430700048</v>
+        <v>2.56187306644857</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.643820085034208</v>
+        <v>2.497577374383603</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.413299707287759</v>
+        <v>2.397053251128087</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2398284810771706</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.09378409646623459</v>
+        <v>0.09378409646623481</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1859779453165022</v>
@@ -1188,7 +1188,7 @@
         <v>-0.1746175851778584</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.04162448868458236</v>
+        <v>-0.04162448868458249</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.02616283337182626</v>
@@ -1197,7 +1197,7 @@
         <v>0.0007318625777267967</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.03082015332347667</v>
+        <v>0.03082015332347649</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3026858345235341</v>
+        <v>-0.2862667585074044</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2308599931845966</v>
+        <v>-0.2606846015531711</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3058743605014684</v>
+        <v>-0.3039878573669241</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.480997648698143</v>
+        <v>-0.4816500338145356</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4778751223845601</v>
+        <v>-0.4650585720824435</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3221165904737246</v>
+        <v>-0.3047824715410237</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2923509158348715</v>
+        <v>-0.3019626168578168</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2801103246634796</v>
+        <v>-0.2557189904110073</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2106140088115199</v>
+        <v>-0.2016011305229124</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.086944947993839</v>
+        <v>1.07718857348195</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.06619788196049</v>
+        <v>1.038636867954071</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7099049199708296</v>
+        <v>0.7357211265629057</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2625706138876184</v>
+        <v>0.2073388524252626</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.224145911065006</v>
+        <v>0.2746390415922693</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3356195931495035</v>
+        <v>0.4065098722155718</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3441941256424939</v>
+        <v>0.3787004133144237</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3890027772486541</v>
+        <v>0.3776727153955454</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3684986422267105</v>
+        <v>0.3569854208581401</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.6391716746891235</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.104461405163404</v>
+        <v>1.104461405163412</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.436381986808475</v>
@@ -1297,7 +1297,7 @@
         <v>-0.3801293344751072</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.5242747572423045</v>
+        <v>-0.5242747572423073</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.070239520094938</v>
@@ -1306,7 +1306,7 @@
         <v>0.1504433966775603</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.3285551894740057</v>
+        <v>0.3285551894740002</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1076496591715741</v>
+        <v>-0.2324503136347091</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9363555667207704</v>
+        <v>-1.147223241609681</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.588035998202866</v>
+        <v>-0.5164205973999286</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3423275187340317</v>
+        <v>0.4691954793512957</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.464282725780009</v>
+        <v>-2.433886312276533</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.203592235323414</v>
+        <v>-2.445065724399402</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6263071025315926</v>
+        <v>0.723803297954433</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.260885222772578</v>
+        <v>-1.187775321394672</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.8880118676482819</v>
+        <v>-0.7851439219550597</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.687808467543405</v>
+        <v>3.355653893294348</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.357174286755303</v>
+        <v>2.405290640922738</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.698671676403404</v>
+        <v>2.912285821427018</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.347924912649464</v>
+        <v>4.798939090065747</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.57480526406069</v>
+        <v>1.593226194053079</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.37142925400849</v>
+        <v>1.404248932162291</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.460244861493531</v>
+        <v>3.542568951953136</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.528085735632973</v>
+        <v>1.478034795853827</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.658183875386056</v>
+        <v>1.702758128731641</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.04589528127229131</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.07930508946445194</v>
+        <v>0.07930508946445254</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1047993984366692</v>
@@ -1402,7 +1402,7 @@
         <v>-0.01635101794251375</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.02255134025452941</v>
+        <v>-0.02255134025452954</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1109495934460731</v>
@@ -1411,7 +1411,7 @@
         <v>0.008062658226742856</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.01760813874090607</v>
+        <v>0.01760813874090577</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.006821897574958553</v>
+        <v>-0.01566808130714255</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06331493230973327</v>
+        <v>-0.07769192809000562</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.04126226439832221</v>
+        <v>-0.03519032361842162</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.01495614254801731</v>
+        <v>0.01751688424017461</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1005762392947002</v>
+        <v>-0.1012989928592028</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09236120817935593</v>
+        <v>-0.09929305436496985</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0317938508433653</v>
+        <v>0.03745100702264244</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.06583519669992546</v>
+        <v>-0.06152071633307592</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.0465258599656342</v>
+        <v>-0.04150554738250752</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2881772057823128</v>
+        <v>0.259405378611347</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1783503056494401</v>
+        <v>0.1840377131016116</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.206293170344261</v>
+        <v>0.2233424044989449</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1971743151071094</v>
+        <v>0.2170306385957405</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.07032835227406757</v>
+        <v>0.07157042475049072</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06073523154094623</v>
+        <v>0.06449892433793633</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1917753563825825</v>
+        <v>0.1959013396726395</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.08450538835649372</v>
+        <v>0.08264196463152422</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.09240946013770317</v>
+        <v>0.09447043681678044</v>
       </c>
     </row>
     <row r="28">
